--- a/biology/Botanique/Primevère_à_feuilles_entières/Primevère_à_feuilles_entières.xlsx
+++ b/biology/Botanique/Primevère_à_feuilles_entières/Primevère_à_feuilles_entières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re_%C3%A0_feuilles_enti%C3%A8res</t>
+          <t>Primevère_à_feuilles_entières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primula integrifolia
 La Primevère à feuilles entières (Primula integrifolia) est une espèce de plantes à fleurs de la famille des Primulacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re_%C3%A0_feuilles_enti%C3%A8res</t>
+          <t>Primevère_à_feuilles_entières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Primula integrifolia est une plante herbacée vivace hermaphrodite, plus ou moins velue, glanduleuse, visqueuse, de 3 à 6 cm de hauteur.
 Ses feuilles se présentent en rosettes basales, à limbe lancéolé ou ovale, vert vif, entier, à bords velus, atténué en pétiole ailé.
 L'inflorescence, présente en juillet-août, est une ombelle simple comprenant deux ou trois fleurs, ou des fleurs solitaires, très brièvement pédicellées, sur un pédoncule dépassant sensiblement les feuilles ; involucre à bractées linéaires, atteignant au moins la moitié de la longueur du calice. Le calice est circulaire, non anguleux, glanduleux, à dents ovales-obtuses. La corolle est rose ou lilas, à tube une fois plus long que le calice, à cinq lobes profondément divisés.
 Le fruit se présente sous forme de capsule beaucoup plus courte que le calice.
 La pollinisation est entomogame et la dissémination barochore.
-Son habitat correspond à des combes à neige et des pelouses rocailleuses, situées entre 1 900 et 2 700 m. La plante est assez commune dans l’Est et le Centre des Pyrénées, très rare en Savoie[1].
+Son habitat correspond à des combes à neige et des pelouses rocailleuses, situées entre 1 900 et 2 700 m. La plante est assez commune dans l’Est et le Centre des Pyrénées, très rare en Savoie.
 </t>
         </is>
       </c>
